--- a/forecast_FR/df_DA_FR_2025-10-29.xlsx
+++ b/forecast_FR/df_DA_FR_2025-10-29.xlsx
@@ -414,13 +414,13 @@
         <v>45959</v>
       </c>
       <c r="B2">
-        <v>47259</v>
+        <v>47350</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>10251</v>
+        <v>5082</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -428,13 +428,13 @@
         <v>45959.04166666666</v>
       </c>
       <c r="B3">
-        <v>44465</v>
+        <v>44520</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>10406</v>
+        <v>5074</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -442,13 +442,13 @@
         <v>45959.08333333334</v>
       </c>
       <c r="B4">
-        <v>43392</v>
+        <v>43517</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>10642</v>
+        <v>5246</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -456,13 +456,13 @@
         <v>45959.125</v>
       </c>
       <c r="B5">
-        <v>41469</v>
+        <v>41609</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>10915</v>
+        <v>5431</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -470,13 +470,13 @@
         <v>45959.16666666666</v>
       </c>
       <c r="B6">
-        <v>40512</v>
+        <v>40650</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>10958</v>
+        <v>5525</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -484,13 +484,13 @@
         <v>45959.20833333334</v>
       </c>
       <c r="B7">
-        <v>41806</v>
+        <v>41941</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>11246</v>
+        <v>5612.5</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -498,13 +498,13 @@
         <v>45959.25</v>
       </c>
       <c r="B8">
-        <v>45774</v>
+        <v>46002</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>11692</v>
+        <v>5720.5</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -512,13 +512,13 @@
         <v>45959.29166666666</v>
       </c>
       <c r="B9">
-        <v>50890</v>
+        <v>51014</v>
       </c>
       <c r="C9">
-        <v>536</v>
+        <v>261</v>
       </c>
       <c r="D9">
-        <v>11708</v>
+        <v>5946</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -526,13 +526,13 @@
         <v>45959.33333333334</v>
       </c>
       <c r="B10">
-        <v>53163</v>
+        <v>53045</v>
       </c>
       <c r="C10">
-        <v>2586</v>
+        <v>1244</v>
       </c>
       <c r="D10">
-        <v>11022</v>
+        <v>5878.5</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -540,13 +540,13 @@
         <v>45959.375</v>
       </c>
       <c r="B11">
-        <v>53943</v>
+        <v>54044</v>
       </c>
       <c r="C11">
-        <v>5510</v>
+        <v>2687</v>
       </c>
       <c r="D11">
-        <v>10261</v>
+        <v>5524.5</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -554,13 +554,13 @@
         <v>45959.41666666666</v>
       </c>
       <c r="B12">
-        <v>54341</v>
+        <v>54367</v>
       </c>
       <c r="C12">
-        <v>8228</v>
+        <v>3981</v>
       </c>
       <c r="D12">
-        <v>9985</v>
+        <v>5469</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -568,13 +568,13 @@
         <v>45959.45833333334</v>
       </c>
       <c r="B13">
-        <v>54704</v>
+        <v>54430</v>
       </c>
       <c r="C13">
-        <v>9864</v>
+        <v>4753</v>
       </c>
       <c r="D13">
-        <v>9787</v>
+        <v>5484</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -582,13 +582,13 @@
         <v>45959.5</v>
       </c>
       <c r="B14">
-        <v>55920</v>
+        <v>55526</v>
       </c>
       <c r="C14">
-        <v>9832</v>
+        <v>4741</v>
       </c>
       <c r="D14">
-        <v>9834</v>
+        <v>5519.5</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -596,13 +596,13 @@
         <v>45959.54166666666</v>
       </c>
       <c r="B15">
-        <v>55323</v>
+        <v>54799</v>
       </c>
       <c r="C15">
-        <v>8646</v>
+        <v>4120</v>
       </c>
       <c r="D15">
-        <v>9964</v>
+        <v>5709</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -610,13 +610,13 @@
         <v>45959.58333333334</v>
       </c>
       <c r="B16">
-        <v>54440</v>
+        <v>54128</v>
       </c>
       <c r="C16">
-        <v>7026</v>
+        <v>3296</v>
       </c>
       <c r="D16">
-        <v>10134</v>
+        <v>6044</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -624,13 +624,13 @@
         <v>45959.625</v>
       </c>
       <c r="B17">
-        <v>53109</v>
+        <v>52888</v>
       </c>
       <c r="C17">
-        <v>4914</v>
+        <v>2272</v>
       </c>
       <c r="D17">
-        <v>10683</v>
+        <v>6634.5</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -638,13 +638,13 @@
         <v>45959.66666666666</v>
       </c>
       <c r="B18">
-        <v>51848</v>
+        <v>51624</v>
       </c>
       <c r="C18">
-        <v>2646</v>
+        <v>1240</v>
       </c>
       <c r="D18">
-        <v>11093</v>
+        <v>7169.5</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -652,13 +652,13 @@
         <v>45959.70833333334</v>
       </c>
       <c r="B19">
-        <v>52414</v>
+        <v>52220</v>
       </c>
       <c r="C19">
-        <v>932</v>
+        <v>443</v>
       </c>
       <c r="D19">
-        <v>10795</v>
+        <v>7028.5</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -666,13 +666,13 @@
         <v>45959.75</v>
       </c>
       <c r="B20">
-        <v>55889</v>
+        <v>55671</v>
       </c>
       <c r="C20">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="D20">
-        <v>10471</v>
+        <v>6592</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -680,13 +680,13 @@
         <v>45959.79166666666</v>
       </c>
       <c r="B21">
-        <v>57090</v>
+        <v>56946</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>10391</v>
+        <v>6615.5</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -694,13 +694,13 @@
         <v>45959.83333333334</v>
       </c>
       <c r="B22">
-        <v>54177</v>
+        <v>54092</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>10639</v>
+        <v>6980.5</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -708,13 +708,13 @@
         <v>45959.875</v>
       </c>
       <c r="B23">
-        <v>50606</v>
+        <v>50490</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>11297</v>
+        <v>7507</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -722,13 +722,13 @@
         <v>45959.91666666666</v>
       </c>
       <c r="B24">
-        <v>49824</v>
+        <v>49640</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>11589</v>
+        <v>8027</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -736,13 +736,13 @@
         <v>45959.95833333334</v>
       </c>
       <c r="B25">
-        <v>50059</v>
+        <v>49868</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>11200</v>
+        <v>8410</v>
       </c>
     </row>
   </sheetData>
